--- a/现金余额变动记录.xlsx
+++ b/现金余额变动记录.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -396,10 +396,10 @@
         <v>43647</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
